--- a/data/eBooks-main/current/azure-quick-start/Azure-Quick-Start-for-NET-Developers.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
+++ b/data/eBooks-main/current/azure-quick-start/Azure-Quick-Start-for-NET-Developers.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
@@ -407,5 +407,5 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><sheetPr><outlinePr summaryBelow="1" summaryRight="1" /><pageSetUpPr /></sheetPr><dimension ref="A1:C22" /><sheetViews><sheetView workbookViewId="0"><selection activeCell="A1" sqref="A1" /></sheetView></sheetViews><sheetFormatPr baseColWidth="8" defaultRowHeight="15" /><sheetData><row r="1"><c r="B1" t="inlineStr" /><c r="C1" t="inlineStr" /></row><row r="2"><c r="A2" t="n"><v>0</v></c><c r="B2" t="inlineStr"><is><t>your services and resources almost infinitely, with just a few clicks of a button.</t></is></c><c r="C2" t="inlineStr"><is><t>You can’t</t></is></c></row><row r="3"><c r="A3" t="n"><v>1</v></c><c r="B3" t="inlineStr"><is><t>do that with on-premises resources unless you’re prepared to spend enormous</t></is></c><c r="C3" t="inlineStr"><is><t>sums of</t></is></c></row><row r="4"><c r="A4" t="n"><v>2</v></c><c r="B4" t="inlineStr"><is><t>money on capital equipment which would remain largely idle and staff to</t></is></c><c r="C4" t="inlineStr"><is><t>administer it</t></is></c></row><row r="5"><c r="A5" t="n"><v>3</v></c><c r="B5" t="inlineStr"><is><t>all. You can scale globally without having to build data centers around the world</t></is></c><c r="C5" t="inlineStr"><is><t>by</t></is></c></row><row r="6"><c r="A6" t="n"><v>4</v></c><c r="B6" t="inlineStr"><is><t>putting your services anywhere in the world eliminating latency and providing a</t></is></c><c r="C6" t="inlineStr" /></row><row r="7"><c r="A7" t="n"><v>5</v></c><c r="B7" t="inlineStr"><is><t>high￾performance experience to your users, regardless of where they are. It also means</t></is></c><c r="C7" t="inlineStr"><is><t>that</t></is></c></row><row r="8"><c r="A8" t="n"><v>6</v></c><c r="B8" t="inlineStr"><is><t>you can keep your data where you need it to be, observing data residency</t></is></c><c r="C8" t="inlineStr" /></row><row r="9"><c r="A9" t="n"><v>7</v></c><c r="B9" t="inlineStr"><is><t>requirements.</t></is></c><c r="C9" t="inlineStr" /></row><row r="10"><c r="A10" t="n"><v>8</v></c><c r="B10" t="inlineStr"><is><t>Equally important, when you use cloud resources, you can scale back your</t></is></c><c r="C10" t="inlineStr"><is><t>services and</t></is></c></row><row r="11"><c r="A11" t="n"><v>9</v></c><c r="B11" t="inlineStr"><is><t>resources when there is no longer high demand. This allows you to scale up and</t></is></c><c r="C11" t="inlineStr"><is><t>down</t></is></c></row><row r="12"><c r="A12" t="n"><v>10</v></c><c r="B12" t="inlineStr"><is><t>even during the course of a normal day keeping applications economical and</t></is></c><c r="C12" t="inlineStr" /></row><row r="13"><c r="A13" t="n"><v>11</v></c><c r="B13" t="inlineStr"><is><t>performant.</t></is></c><c r="C13" t="inlineStr" /></row><row r="14"><c r="A14" t="n"><v>12</v></c><c r="B14" t="inlineStr"><is><t>In addition to massive scalability, off-the-shelf intelligent services, and</t></is></c><c r="C14" t="inlineStr"><is><t>pay-per-use</t></is></c></row><row r="15"><c r="A15" t="n"><v>13</v></c><c r="B15" t="inlineStr"><is><t>efficiency, the cloud offers increased security. The cloud is used by millions of</t></is></c><c r="C15" t="inlineStr"><is><t>people,</t></is></c></row><row r="16"><c r="A16" t="n"><v>14</v></c><c r="B16" t="inlineStr"><is><t>24x7, worldwide. Of course, it is also attacked by many people. Reputable and</t></is></c><c r="C16" t="inlineStr" /></row><row r="17"><c r="A17" t="n"><v>15</v></c><c r="B17" t="inlineStr"><is><t>experienced cloud providers like Microsoft recognize the usage patterns of</t></is></c><c r="C17" t="inlineStr"><is><t>normal users</t></is></c></row><row r="18"><c r="A18" t="n"><v>16</v></c><c r="B18" t="inlineStr"><is><t>and those of malicious actors. This means we know how to protect against both</t></is></c><c r="C18" t="inlineStr"><is><t>the</t></is></c></row><row r="19"><c r="A19" t="n"><v>17</v></c><c r="B19" t="inlineStr"><is><t>most common and most unique attacks out there. Intelligent monitoring tools,</t></is></c><c r="C19" t="inlineStr"><is><t>machine</t></is></c></row><row r="20"><c r="A20" t="n"><v>18</v></c><c r="B20" t="inlineStr"><is><t>learning algorithms, and artificial intelligence give cloud providers the ability to</t></is></c><c r="C20" t="inlineStr"><is><t>detect</t></is></c></row><row r="21"><c r="A21" t="n"><v>19</v></c><c r="B21" t="inlineStr"><is><t>attacks in real time and stop them in their tracks.</t></is></c><c r="C21" t="inlineStr" /></row><row r="22"><c r="A22" t="n"><v>20</v></c><c r="B22" t="inlineStr"><is><t>Decades of in and massive-scale traffic, combined with</t></is></c><c r="C22" t="inlineStr"><is><t>experience security top industry</t></is></c></row></sheetData><pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5" /></worksheet>
+<file path=xl/worksheets/sheet1.xml><worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><sheetPr><outlinePr summaryBelow="1" summaryRight="1" /><pageSetUpPr /></sheetPr><dimension ref="A1:C22" /><sheetViews><sheetView workbookViewId="0"><selection activeCell="A1" sqref="A1" /></sheetView></sheetViews><sheetFormatPr baseColWidth="8" defaultRowHeight="15" /><sheetData><row r="1"><c r="B1" t="inlineStr" /><c r="C1" t="inlineStr" /></row><row r="2"><c r="A2" t="n"><v>0</v></c><c r="B2" t="inlineStr"><is><t>your services and resources almost infinitely, with just a few clicks of a button.</t></is></c><c r="C2" t="inlineStr"><is><t>You can’t</t></is></c></row><row r="3"><c r="A3" t="n"><v>1</v></c><c r="B3" t="inlineStr"><is><t>do that with on-premises resources unless you’re prepared to spend enormous</t></is></c><c r="C3" t="inlineStr"><is><t>sums of</t></is></c></row><row r="4"><c r="A4" t="n"><v>2</v></c><c r="B4" t="inlineStr"><is><t>money on capital equipment which would remain largely idle and staff to</t></is></c><c r="C4" t="inlineStr"><is><t>administer it</t></is></c></row><row r="5"><c r="A5" t="n"><v>3</v></c><c r="B5" t="inlineStr"><is><t>all. You can scale globally without having to build data centers around the world</t></is></c><c r="C5" t="inlineStr"><is><t>by</t></is></c></row><row r="6"><c r="A6" t="n"><v>4</v></c><c r="B6" t="inlineStr"><is><t>putting your services anywhere in the world eliminating latency and providing a</t></is></c><c r="C6" t="inlineStr" /></row><row r="7"><c r="A7" t="n"><v>5</v></c><c r="B7" t="inlineStr"><is><t>high￾performance experience to your users, regardless of where they are. It also</t></is></c><c r="C7" t="inlineStr"><is><t>means that</t></is></c></row><row r="8"><c r="A8" t="n"><v>6</v></c><c r="B8" t="inlineStr"><is><t>you can keep your data where you need it to be, observing data residency</t></is></c><c r="C8" t="inlineStr" /></row><row r="9"><c r="A9" t="n"><v>7</v></c><c r="B9" t="inlineStr"><is><t>requirements.</t></is></c><c r="C9" t="inlineStr" /></row><row r="10"><c r="A10" t="n"><v>8</v></c><c r="B10" t="inlineStr"><is><t>Equally important, when you use cloud resources, you can scale back your</t></is></c><c r="C10" t="inlineStr"><is><t>services and</t></is></c></row><row r="11"><c r="A11" t="n"><v>9</v></c><c r="B11" t="inlineStr"><is><t>resources when there is no longer high demand. This allows you to scale up and</t></is></c><c r="C11" t="inlineStr"><is><t>down</t></is></c></row><row r="12"><c r="A12" t="n"><v>10</v></c><c r="B12" t="inlineStr"><is><t>even during the course of a normal day keeping applications economical and</t></is></c><c r="C12" t="inlineStr" /></row><row r="13"><c r="A13" t="n"><v>11</v></c><c r="B13" t="inlineStr"><is><t>performant.</t></is></c><c r="C13" t="inlineStr" /></row><row r="14"><c r="A14" t="n"><v>12</v></c><c r="B14" t="inlineStr"><is><t>In addition to massive scalability, off-the-shelf intelligent services, and</t></is></c><c r="C14" t="inlineStr"><is><t>pay-per-use</t></is></c></row><row r="15"><c r="A15" t="n"><v>13</v></c><c r="B15" t="inlineStr"><is><t>efficiency, the cloud offers increased security. The cloud is used by millions of</t></is></c><c r="C15" t="inlineStr"><is><t>people,</t></is></c></row><row r="16"><c r="A16" t="n"><v>14</v></c><c r="B16" t="inlineStr"><is><t>24x7, worldwide. Of course, it is also attacked by many people. Reputable and</t></is></c><c r="C16" t="inlineStr" /></row><row r="17"><c r="A17" t="n"><v>15</v></c><c r="B17" t="inlineStr"><is><t>experienced cloud providers like Microsoft recognize the usage patterns of</t></is></c><c r="C17" t="inlineStr"><is><t>normal users</t></is></c></row><row r="18"><c r="A18" t="n"><v>16</v></c><c r="B18" t="inlineStr"><is><t>and those of malicious actors. This means we know how to protect against both</t></is></c><c r="C18" t="inlineStr"><is><t>the</t></is></c></row><row r="19"><c r="A19" t="n"><v>17</v></c><c r="B19" t="inlineStr"><is><t>most common and most unique attacks out there. Intelligent monitoring tools,</t></is></c><c r="C19" t="inlineStr"><is><t>machine</t></is></c></row><row r="20"><c r="A20" t="n"><v>18</v></c><c r="B20" t="inlineStr"><is><t>learning algorithms, and artificial intelligence give cloud providers the ability to</t></is></c><c r="C20" t="inlineStr"><is><t>detect</t></is></c></row><row r="21"><c r="A21" t="n"><v>19</v></c><c r="B21" t="inlineStr"><is><t>attacks in real time and stop them in their tracks.</t></is></c><c r="C21" t="inlineStr" /></row><row r="22"><c r="A22" t="n"><v>20</v></c><c r="B22" t="inlineStr"><is><t>Decades of experience in security and massive-scale traffic, combined with top</t></is></c><c r="C22" t="inlineStr"><is><t>industry</t></is></c></row></sheetData><pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5" /></worksheet>
 </file>